--- a/page.xlsx
+++ b/page.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ootsubobirino/Documents/htdocs/musalab_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48C839-7ECF-C041-B3D8-C444E2069138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBC2DC0-3E80-EA4E-B789-4C396150BD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{985B3862-1A6E-8C44-AB0F-E3AAC4B2BC7F}"/>
+    <workbookView xWindow="5300" yWindow="800" windowWidth="13900" windowHeight="17120" activeTab="1" xr2:uid="{985B3862-1A6E-8C44-AB0F-E3AAC4B2BC7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="サイト構成とURL" sheetId="3" r:id="rId1"/>
+    <sheet name="固定ページ" sheetId="1" r:id="rId2"/>
+    <sheet name="カスタム投稿ページ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>タイトル</t>
   </si>
@@ -119,42 +121,6 @@
     <t>GOLD RUSH</t>
   </si>
   <si>
-    <t>/making-games/gold-rush/</t>
-  </si>
-  <si>
-    <t>/making-games/butterfly/</t>
-  </si>
-  <si>
-    <t>/making-games/ikuseisou/</t>
-  </si>
-  <si>
-    <t>/making-games/rover/</t>
-  </si>
-  <si>
-    <t>/making-games/build-and-crush/</t>
-  </si>
-  <si>
-    <t>/making-games/little-hero-the-mind/</t>
-  </si>
-  <si>
-    <t>/making-games/henshin/</t>
-  </si>
-  <si>
-    <t>/making-games/science-explosion/</t>
-  </si>
-  <si>
-    <t>/making-games/poltergeist/</t>
-  </si>
-  <si>
-    <t>/making-games/die-and-get-strong/</t>
-  </si>
-  <si>
-    <t>/making-games/the-secrets-of-the-forgotten-stage-and-love/</t>
-  </si>
-  <si>
-    <t>/making-games/miko-miko-mononokefever/</t>
-  </si>
-  <si>
     <t>ギャラリー</t>
   </si>
   <si>
@@ -165,6 +131,201 @@
   </si>
   <si>
     <t>お問い合わせ</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>/gallery/other</t>
+  </si>
+  <si>
+    <t>/gallery/butterfly</t>
+  </si>
+  <si>
+    <t>/gallery/build-and-crush</t>
+  </si>
+  <si>
+    <t>/gallery/deutzia</t>
+  </si>
+  <si>
+    <t>使用テンプレート</t>
+  </si>
+  <si>
+    <t>front-page.php</t>
+  </si>
+  <si>
+    <t>page-making-games.php</t>
+  </si>
+  <si>
+    <t>page-gallery.php</t>
+  </si>
+  <si>
+    <t>page-individual-gallery.php</t>
+  </si>
+  <si>
+    <t>page-contact.php</t>
+  </si>
+  <si>
+    <t>page-what-is-musabigamelab.php</t>
+  </si>
+  <si>
+    <t>page-history.php</t>
+  </si>
+  <si>
+    <t>page.php</t>
+  </si>
+  <si>
+    <t>page-game-detail.php</t>
+  </si>
+  <si>
+    <t>/archives/games/mikomiko/</t>
+  </si>
+  <si>
+    <t>/archives/games/butterfly/</t>
+  </si>
+  <si>
+    <t>/archives/games/ikuseisou/</t>
+  </si>
+  <si>
+    <t>/archives/games/deutzia/</t>
+  </si>
+  <si>
+    <t>/archives/games/build-and-crush/</t>
+  </si>
+  <si>
+    <t>/archives/games/little-hero-the-mind/</t>
+  </si>
+  <si>
+    <t>/archives/games/rover/</t>
+  </si>
+  <si>
+    <t>/archives/games/henshin/</t>
+  </si>
+  <si>
+    <t>/archives/games/die-and-get-strong/</t>
+  </si>
+  <si>
+    <t>ささみ美術大学</t>
+  </si>
+  <si>
+    <t>/archives/games/sasami-art-university</t>
+  </si>
+  <si>
+    <t>/archives/games/science-explosion/</t>
+  </si>
+  <si>
+    <t>/archives/games/poltergeist/</t>
+  </si>
+  <si>
+    <t>/archives/games/gold-rush/</t>
+  </si>
+  <si>
+    <t>親ページ/カテゴリー</t>
+  </si>
+  <si>
+    <t>子ページ/投稿/投稿一覧</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/what-is-musabigamelab</t>
+  </si>
+  <si>
+    <t>/what-is-musabigamelab/history</t>
+  </si>
+  <si>
+    <t>/what-is-musabigamelab/member</t>
+  </si>
+  <si>
+    <t>高村檸檬</t>
+  </si>
+  <si>
+    <t>masaki</t>
+  </si>
+  <si>
+    <t>Fクマ</t>
+  </si>
+  <si>
+    <t>115osora</t>
+  </si>
+  <si>
+    <t>うさてん</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>壺華（Yuri）</t>
+  </si>
+  <si>
+    <t>たい焼き</t>
+  </si>
+  <si>
+    <t>べっちゃく</t>
+  </si>
+  <si>
+    <t>0oo0</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>ひな</t>
+  </si>
+  <si>
+    <t>Miri</t>
+  </si>
+  <si>
+    <t>shiba</t>
+  </si>
+  <si>
+    <t>たけ</t>
+  </si>
+  <si>
+    <t>飛べないひつじ</t>
+  </si>
+  <si>
+    <t>ありさ</t>
+  </si>
+  <si>
+    <t>きむち</t>
+  </si>
+  <si>
+    <t>ぎょにく</t>
+  </si>
+  <si>
+    <t>ニキ</t>
+  </si>
+  <si>
+    <t>加藤</t>
+  </si>
+  <si>
+    <t>岩井</t>
+  </si>
+  <si>
+    <t>大場</t>
+  </si>
+  <si>
+    <t>新谷</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t>殿山</t>
+  </si>
+  <si>
+    <t>無味蒙昧</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Daichi</t>
   </si>
 </sst>
 </file>
@@ -535,21 +696,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158D5FDB-032E-DB41-A819-3195344D1A55}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA41FF8-DEE8-3549-A4A2-987472E19271}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +794,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -576,13 +811,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -590,243 +828,568 @@
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>310</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>320</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D20">
-        <v>500</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B999464D-9DB1-E34C-A1B8-F72CA3974312}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
